--- a/data/pca/factorExposure/factorExposure_2011-02-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-02-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>factor1</t>
   </si>
@@ -35,6 +35,12 @@
   </si>
   <si>
     <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -701,13 +707,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H104"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,36 +735,48 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2">
-        <v>0.009708515158717059</v>
+        <v>0.01555168778698503</v>
       </c>
       <c r="C2">
-        <v>-0.0002402600523973411</v>
+        <v>-0.002161296963758311</v>
       </c>
       <c r="D2">
-        <v>0.02555506155365263</v>
+        <v>-0.003583897662493186</v>
       </c>
       <c r="E2">
-        <v>-0.02245687204042548</v>
+        <v>-0.01708996336641302</v>
       </c>
       <c r="F2">
-        <v>-0.01020182201379217</v>
+        <v>-0.008067995043074327</v>
       </c>
       <c r="G2">
-        <v>-0.01299869217956985</v>
+        <v>0.01992574275122884</v>
       </c>
       <c r="H2">
-        <v>0.05381232889826838</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>0.01322525546143239</v>
+      </c>
+      <c r="I2">
+        <v>-0.004083778637429709</v>
+      </c>
+      <c r="J2">
+        <v>0.02032231508229447</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -781,36 +799,48 @@
       <c r="H3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4">
-        <v>0.1100976395161094</v>
+        <v>0.1258962473803847</v>
       </c>
       <c r="C4">
-        <v>0.01599646547425272</v>
+        <v>-0.05379867582794785</v>
       </c>
       <c r="D4">
-        <v>0.06383664323953368</v>
+        <v>-0.00787811932976365</v>
       </c>
       <c r="E4">
-        <v>-0.0553855917914147</v>
+        <v>-0.0008126286021203148</v>
       </c>
       <c r="F4">
-        <v>-0.01521174101680455</v>
+        <v>0.006775052239264684</v>
       </c>
       <c r="G4">
-        <v>-0.03902931670013126</v>
+        <v>-0.01905346660344399</v>
       </c>
       <c r="H4">
-        <v>-0.03882663663122356</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>0.05962593959386928</v>
+      </c>
+      <c r="I4">
+        <v>0.1088398223286995</v>
+      </c>
+      <c r="J4">
+        <v>-0.07440544447941737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -833,296 +863,368 @@
       <c r="H5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B6">
-        <v>0.1267264446844195</v>
+        <v>0.1189086565792526</v>
       </c>
       <c r="C6">
-        <v>0.02874129075146396</v>
+        <v>0.004834620934430529</v>
       </c>
       <c r="D6">
-        <v>-0.04440426148345004</v>
+        <v>-0.0155155640947281</v>
       </c>
       <c r="E6">
-        <v>-0.02179149487538849</v>
+        <v>-0.0140148803014432</v>
       </c>
       <c r="F6">
-        <v>0.2569074174266415</v>
+        <v>-0.01974928325577872</v>
       </c>
       <c r="G6">
-        <v>0.122967956751784</v>
+        <v>-0.0547594191695805</v>
       </c>
       <c r="H6">
-        <v>-0.2485934312616536</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>-0.04485467714935432</v>
+      </c>
+      <c r="I6">
+        <v>0.04841576411035774</v>
+      </c>
+      <c r="J6">
+        <v>0.07699815470373865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B7">
-        <v>0.08817696733031551</v>
+        <v>0.08125594780968201</v>
       </c>
       <c r="C7">
-        <v>0.03667823935379512</v>
+        <v>-0.04395781827641582</v>
       </c>
       <c r="D7">
-        <v>0.0245836155341781</v>
+        <v>-0.03343240694573085</v>
       </c>
       <c r="E7">
-        <v>-0.04970471558045648</v>
+        <v>-0.04213654529813569</v>
       </c>
       <c r="F7">
-        <v>0.003889833198040416</v>
+        <v>-0.02063699137886894</v>
       </c>
       <c r="G7">
-        <v>-0.001126867338030825</v>
+        <v>0.03468792661937375</v>
       </c>
       <c r="H7">
-        <v>-0.0150382931142018</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>0.03666655249305728</v>
+      </c>
+      <c r="I7">
+        <v>0.0107998797275569</v>
+      </c>
+      <c r="J7">
+        <v>-0.07404622660471898</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B8">
-        <v>0.04002615071042966</v>
+        <v>0.05212853784185906</v>
       </c>
       <c r="C8">
-        <v>-0.04093815444766464</v>
+        <v>-0.004910409329339075</v>
       </c>
       <c r="D8">
-        <v>0.06343670257136273</v>
+        <v>-0.006597412125793616</v>
       </c>
       <c r="E8">
-        <v>-0.09835000415772038</v>
+        <v>-0.02127592799172432</v>
       </c>
       <c r="F8">
-        <v>0.02205953013476211</v>
+        <v>0.02331013213481352</v>
       </c>
       <c r="G8">
-        <v>-0.1644773372981474</v>
+        <v>-0.02326039253801958</v>
       </c>
       <c r="H8">
-        <v>-0.08173436328074966</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0.07291800937318429</v>
+      </c>
+      <c r="I8">
+        <v>0.0848082764754262</v>
+      </c>
+      <c r="J8">
+        <v>-0.001085667965802472</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9">
-        <v>0.09614562233245764</v>
+        <v>0.09897302149785278</v>
       </c>
       <c r="C9">
-        <v>0.03233675594016233</v>
+        <v>-0.05180168884321022</v>
       </c>
       <c r="D9">
-        <v>0.03869088194311343</v>
+        <v>0.008333527304893697</v>
       </c>
       <c r="E9">
-        <v>-0.04975803574109094</v>
+        <v>-0.0133128998708104</v>
       </c>
       <c r="F9">
-        <v>-0.0004983802494357533</v>
+        <v>0.01627855183598579</v>
       </c>
       <c r="G9">
-        <v>-0.08106337476345876</v>
+        <v>-0.004447762677244429</v>
       </c>
       <c r="H9">
-        <v>-0.05976524366655809</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>0.0721035026368284</v>
+      </c>
+      <c r="I9">
+        <v>0.09002069558193267</v>
+      </c>
+      <c r="J9">
+        <v>-0.04074967543397667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B10">
-        <v>0.04066166763023876</v>
+        <v>0.06446289085725973</v>
       </c>
       <c r="C10">
-        <v>-0.1820466139340802</v>
+        <v>0.1886759801491565</v>
       </c>
       <c r="D10">
-        <v>0.008263040544959044</v>
+        <v>0.002068531833599322</v>
       </c>
       <c r="E10">
-        <v>-0.09779370069799695</v>
+        <v>-0.001787270223706521</v>
       </c>
       <c r="F10">
-        <v>0.03304231134926134</v>
+        <v>-0.008061920897963534</v>
       </c>
       <c r="G10">
-        <v>0.02057227981854567</v>
+        <v>0.05654317425475823</v>
       </c>
       <c r="H10">
-        <v>-0.04399921468491532</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>0.02492429656915804</v>
+      </c>
+      <c r="I10">
+        <v>0.02087309561836098</v>
+      </c>
+      <c r="J10">
+        <v>-0.02324451528555055</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11">
-        <v>0.07698813147888083</v>
+        <v>0.0946465139804913</v>
       </c>
       <c r="C11">
-        <v>0.05693813073082487</v>
+        <v>-0.06873209267224191</v>
       </c>
       <c r="D11">
-        <v>-0.02227374610944188</v>
+        <v>-0.02724832203332148</v>
       </c>
       <c r="E11">
-        <v>-0.01687394462328303</v>
+        <v>-0.04290037038267209</v>
       </c>
       <c r="F11">
-        <v>-0.03356000127638552</v>
+        <v>0.06285347849965034</v>
       </c>
       <c r="G11">
-        <v>-0.1425818103111844</v>
+        <v>-0.02073774546055837</v>
       </c>
       <c r="H11">
-        <v>0.03533673792258675</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0.08781936080860266</v>
+      </c>
+      <c r="I11">
+        <v>0.08420494520717749</v>
+      </c>
+      <c r="J11">
+        <v>0.00175043186687221</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12">
-        <v>0.07626992385482559</v>
+        <v>0.09684483566438822</v>
       </c>
       <c r="C12">
-        <v>0.0332207667643912</v>
+        <v>-0.06898952881899913</v>
       </c>
       <c r="D12">
-        <v>0.01244704932704415</v>
+        <v>-0.02812410646722205</v>
       </c>
       <c r="E12">
-        <v>-0.009504949922704342</v>
+        <v>-0.04020164951528454</v>
       </c>
       <c r="F12">
-        <v>0.00995428104121413</v>
+        <v>0.07780671357807084</v>
       </c>
       <c r="G12">
-        <v>-0.1498641163843126</v>
+        <v>-0.002713518630701479</v>
       </c>
       <c r="H12">
-        <v>0.03018771969468179</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>0.09267988021616501</v>
+      </c>
+      <c r="I12">
+        <v>0.05534148950274521</v>
+      </c>
+      <c r="J12">
+        <v>0.02301987924294547</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B13">
-        <v>0.06168791496307189</v>
+        <v>0.04883926372493781</v>
       </c>
       <c r="C13">
-        <v>0.00673770503188075</v>
+        <v>-0.01777997309612256</v>
       </c>
       <c r="D13">
-        <v>0.0259113028460885</v>
+        <v>0.02950336225003498</v>
       </c>
       <c r="E13">
-        <v>-0.01355474499658411</v>
+        <v>-0.009810105585267388</v>
       </c>
       <c r="F13">
-        <v>-0.05051196240557935</v>
+        <v>-0.007176298655243144</v>
       </c>
       <c r="G13">
-        <v>-0.0969572030847612</v>
+        <v>-0.01927151602041792</v>
       </c>
       <c r="H13">
-        <v>-0.02672087343268036</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>0.07176638992584083</v>
+      </c>
+      <c r="I13">
+        <v>0.04424323279509125</v>
+      </c>
+      <c r="J13">
+        <v>-0.0001387555254135065</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14">
-        <v>0.05242832477278954</v>
+        <v>0.03323781437624652</v>
       </c>
       <c r="C14">
-        <v>0.005871666035381333</v>
+        <v>-0.005514719550169079</v>
       </c>
       <c r="D14">
-        <v>0.01710679858066981</v>
+        <v>-0.005427122917975913</v>
       </c>
       <c r="E14">
-        <v>-0.04766756076653454</v>
+        <v>-0.002194638098785812</v>
       </c>
       <c r="F14">
-        <v>-0.007433023337771114</v>
+        <v>0.016219529308894</v>
       </c>
       <c r="G14">
-        <v>-0.02444830196088138</v>
+        <v>0.005014380628560208</v>
       </c>
       <c r="H14">
-        <v>-0.1552601748050366</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>0.03033991447581762</v>
+      </c>
+      <c r="I14">
+        <v>0.04177178041035189</v>
+      </c>
+      <c r="J14">
+        <v>-0.1146106960883663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15">
-        <v>0.0377131169281938</v>
+        <v>0.03258696829092936</v>
       </c>
       <c r="C15">
-        <v>-0.01128458829653868</v>
+        <v>-0.01678250105116106</v>
       </c>
       <c r="D15">
-        <v>0.004671591846695642</v>
+        <v>0.009979954126218491</v>
       </c>
       <c r="E15">
-        <v>-0.02088285887396431</v>
+        <v>-0.01616423085399875</v>
       </c>
       <c r="F15">
-        <v>-0.001112923775903115</v>
+        <v>-0.02365426472319247</v>
       </c>
       <c r="G15">
-        <v>-0.002607210797531208</v>
+        <v>-0.01143527426446358</v>
       </c>
       <c r="H15">
-        <v>-0.07153421323480565</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>0.04768335803075025</v>
+      </c>
+      <c r="I15">
+        <v>0.0203631995497892</v>
+      </c>
+      <c r="J15">
+        <v>-0.0447764897972012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B16">
-        <v>0.08526201943617337</v>
+        <v>0.09946594400085558</v>
       </c>
       <c r="C16">
-        <v>0.06337728014975852</v>
+        <v>-0.06656581965276895</v>
       </c>
       <c r="D16">
-        <v>0.02447229811710648</v>
+        <v>-0.03777036008018785</v>
       </c>
       <c r="E16">
-        <v>-0.01894415041206196</v>
+        <v>-0.04985878365510099</v>
       </c>
       <c r="F16">
-        <v>-0.03830329769888131</v>
+        <v>0.05953932856342847</v>
       </c>
       <c r="G16">
-        <v>-0.128615722765793</v>
+        <v>-0.01489862618749355</v>
       </c>
       <c r="H16">
-        <v>0.03169951017200832</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>0.09923126923229932</v>
+      </c>
+      <c r="I16">
+        <v>0.06064664046004446</v>
+      </c>
+      <c r="J16">
+        <v>-0.009907981318170691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1145,10 +1247,16 @@
       <c r="H17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1171,10 +1279,16 @@
       <c r="H18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1197,192 +1311,240 @@
       <c r="H19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B20">
-        <v>0.05700622763781535</v>
+        <v>0.05650560575534098</v>
       </c>
       <c r="C20">
-        <v>0.01536505743279874</v>
+        <v>-0.03114166423182478</v>
       </c>
       <c r="D20">
-        <v>-0.01185355010702012</v>
+        <v>-0.0310323528968424</v>
       </c>
       <c r="E20">
-        <v>-0.01708298329024687</v>
+        <v>-0.004414788483224719</v>
       </c>
       <c r="F20">
-        <v>0.002589832974311596</v>
+        <v>-0.005584965297311362</v>
       </c>
       <c r="G20">
-        <v>-0.1093918258466902</v>
+        <v>-0.009321969285440447</v>
       </c>
       <c r="H20">
-        <v>-0.01106163779145929</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>0.04235085404370688</v>
+      </c>
+      <c r="I20">
+        <v>0.03752408643710493</v>
+      </c>
+      <c r="J20">
+        <v>-0.06728146015145492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>0.02775644767391544</v>
+        <v>0.02231128802836226</v>
       </c>
       <c r="C21">
-        <v>0.0299109203463905</v>
+        <v>-0.001331778763946247</v>
       </c>
       <c r="D21">
-        <v>-0.00115354346238515</v>
+        <v>-0.007215127672116449</v>
       </c>
       <c r="E21">
-        <v>0.003545985683193966</v>
+        <v>0.03365892726207283</v>
       </c>
       <c r="F21">
-        <v>0.06864287267796708</v>
+        <v>0.006140295589452093</v>
       </c>
       <c r="G21">
-        <v>0.1288677887878872</v>
+        <v>-0.03060999162630505</v>
       </c>
       <c r="H21">
-        <v>-0.1090833159322</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>0.01738781242166836</v>
+      </c>
+      <c r="I21">
+        <v>0.05743159842647455</v>
+      </c>
+      <c r="J21">
+        <v>-0.04375533490561579</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B22">
-        <v>0.0423029443090049</v>
+        <v>0.02974403160119867</v>
       </c>
       <c r="C22">
-        <v>0.01011516794761508</v>
+        <v>0.03683157380862109</v>
       </c>
       <c r="D22">
-        <v>0.6252106856737835</v>
+        <v>0.004485170303247226</v>
       </c>
       <c r="E22">
-        <v>0.113234455609346</v>
+        <v>-0.1026234400364844</v>
       </c>
       <c r="F22">
-        <v>-0.01545795100637051</v>
+        <v>-0.5926034190088423</v>
       </c>
       <c r="G22">
-        <v>0.2186820138024372</v>
+        <v>-0.08660223304120954</v>
       </c>
       <c r="H22">
-        <v>0.06436149683810659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>0.2756622033904105</v>
+      </c>
+      <c r="I22">
+        <v>-0.1002038288642736</v>
+      </c>
+      <c r="J22">
+        <v>0.05791195144752959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B23">
-        <v>0.04273016094437103</v>
+        <v>0.02992667804415515</v>
       </c>
       <c r="C23">
-        <v>0.01093881457103107</v>
+        <v>0.03654854413962336</v>
       </c>
       <c r="D23">
-        <v>0.6248655516838882</v>
+        <v>0.004063410370258056</v>
       </c>
       <c r="E23">
-        <v>0.1115796948708548</v>
+        <v>-0.1042406453257641</v>
       </c>
       <c r="F23">
-        <v>-0.01543211890262298</v>
+        <v>-0.5942157350088338</v>
       </c>
       <c r="G23">
-        <v>0.2206496871944577</v>
+        <v>-0.08764389302728481</v>
       </c>
       <c r="H23">
-        <v>0.06420856188274481</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>0.2771193627702041</v>
+      </c>
+      <c r="I23">
+        <v>-0.09788792358491698</v>
+      </c>
+      <c r="J23">
+        <v>0.05604136316547107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B24">
-        <v>0.0852680100944084</v>
+        <v>0.101568354737656</v>
       </c>
       <c r="C24">
-        <v>0.04440774250101295</v>
+        <v>-0.06155776383790432</v>
       </c>
       <c r="D24">
-        <v>0.02856094044247339</v>
+        <v>-0.03265776432472155</v>
       </c>
       <c r="E24">
-        <v>-0.03387007592795387</v>
+        <v>-0.03798045419577987</v>
       </c>
       <c r="F24">
-        <v>-0.009222054761573532</v>
+        <v>0.05436948034088464</v>
       </c>
       <c r="G24">
-        <v>-0.1193506806355253</v>
+        <v>-0.0006316200390727076</v>
       </c>
       <c r="H24">
-        <v>0.02009975507601499</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>0.1016034583483953</v>
+      </c>
+      <c r="I24">
+        <v>0.05684066570903415</v>
+      </c>
+      <c r="J24">
+        <v>0.006664113949536397</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25">
-        <v>0.07742309818188876</v>
+        <v>0.1016289203753147</v>
       </c>
       <c r="C25">
-        <v>0.01799617588972209</v>
+        <v>-0.05074605545292923</v>
       </c>
       <c r="D25">
-        <v>0.01518370517177148</v>
+        <v>-0.02758564637324288</v>
       </c>
       <c r="E25">
-        <v>-0.02002839609891939</v>
+        <v>-0.04216162812465812</v>
       </c>
       <c r="F25">
-        <v>0.009774548436039442</v>
+        <v>0.0870971725951145</v>
       </c>
       <c r="G25">
-        <v>-0.1201368656751539</v>
+        <v>-0.001535933894264284</v>
       </c>
       <c r="H25">
-        <v>0.02488356684811124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>0.09882400407553774</v>
+      </c>
+      <c r="I25">
+        <v>0.06048912274811449</v>
+      </c>
+      <c r="J25">
+        <v>-0.01455171153749995</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B26">
-        <v>0.0516105644067333</v>
+        <v>0.0457699339631664</v>
       </c>
       <c r="C26">
-        <v>0.02235791086440641</v>
+        <v>-0.001504981110905276</v>
       </c>
       <c r="D26">
-        <v>0.006260170759656682</v>
+        <v>-0.02605913891884291</v>
       </c>
       <c r="E26">
-        <v>-0.04911758409603578</v>
+        <v>-0.004267964354309507</v>
       </c>
       <c r="F26">
-        <v>-0.04672638528354085</v>
+        <v>0.01314978145941274</v>
       </c>
       <c r="G26">
-        <v>-0.0720112175530358</v>
+        <v>-0.03160943528984821</v>
       </c>
       <c r="H26">
-        <v>-0.09627284500860457</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>0.05661806566843786</v>
+      </c>
+      <c r="I26">
+        <v>0.01845051734127051</v>
+      </c>
+      <c r="J26">
+        <v>-0.08293899585120887</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1405,244 +1567,304 @@
       <c r="H27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28">
-        <v>0.06165847561780235</v>
+        <v>0.06482935629341571</v>
       </c>
       <c r="C28">
-        <v>-0.3083083873553703</v>
+        <v>0.3062315812073402</v>
       </c>
       <c r="D28">
-        <v>-0.006180263370160629</v>
+        <v>0.07150044792790512</v>
       </c>
       <c r="E28">
-        <v>-0.01990914540863349</v>
+        <v>-0.03383426179125108</v>
       </c>
       <c r="F28">
-        <v>0.007492335417352613</v>
+        <v>0.05676847030224124</v>
       </c>
       <c r="G28">
-        <v>0.01695801530827754</v>
+        <v>-0.01575651497562901</v>
       </c>
       <c r="H28">
-        <v>0.07808648472752214</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>0.04419111690201381</v>
+      </c>
+      <c r="I28">
+        <v>0.04737938221617235</v>
+      </c>
+      <c r="J28">
+        <v>-0.0004249598827429118</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29">
-        <v>0.05752033904167508</v>
+        <v>0.03567921127708751</v>
       </c>
       <c r="C29">
-        <v>-0.002400709727169878</v>
+        <v>-0.004491086508189687</v>
       </c>
       <c r="D29">
-        <v>0.03984906635213667</v>
+        <v>0.005798970144032335</v>
       </c>
       <c r="E29">
-        <v>-0.02849643827739367</v>
+        <v>-0.008050165128650014</v>
       </c>
       <c r="F29">
-        <v>-0.02118057967692308</v>
+        <v>0.02291707750497911</v>
       </c>
       <c r="G29">
-        <v>-0.04569845642776904</v>
+        <v>0.0153266363187849</v>
       </c>
       <c r="H29">
-        <v>-0.1015605122468353</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>0.06596190288835221</v>
+      </c>
+      <c r="I29">
+        <v>0.02240394982754123</v>
+      </c>
+      <c r="J29">
+        <v>-0.116433312990467</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B30">
-        <v>0.1126307734142897</v>
+        <v>0.1213686363776559</v>
       </c>
       <c r="C30">
-        <v>-0.01084183468237449</v>
+        <v>-0.05972075108562507</v>
       </c>
       <c r="D30">
-        <v>0.1585533337345856</v>
+        <v>0.01066329948828751</v>
       </c>
       <c r="E30">
-        <v>-0.03207858997842095</v>
+        <v>-0.03006532278567376</v>
       </c>
       <c r="F30">
-        <v>0.1669110980941181</v>
+        <v>0.05569782991853968</v>
       </c>
       <c r="G30">
-        <v>-0.2057414937805261</v>
+        <v>-0.08407475755081541</v>
       </c>
       <c r="H30">
-        <v>0.03720682023584349</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>0.1430166872869373</v>
+      </c>
+      <c r="I30">
+        <v>0.05746812964967575</v>
+      </c>
+      <c r="J30">
+        <v>0.1938385353271442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B31">
-        <v>0.05599621948995626</v>
+        <v>0.03783555651883855</v>
       </c>
       <c r="C31">
-        <v>0.0279017214287331</v>
+        <v>-0.0228841060408912</v>
       </c>
       <c r="D31">
-        <v>0.02146572829664828</v>
+        <v>-0.02071330003383298</v>
       </c>
       <c r="E31">
-        <v>0.008843061180885653</v>
+        <v>-0.02019084645185022</v>
       </c>
       <c r="F31">
-        <v>-0.01147704039903548</v>
+        <v>-0.004148273293917201</v>
       </c>
       <c r="G31">
-        <v>-0.02730818850840494</v>
+        <v>-0.0002814515844527057</v>
       </c>
       <c r="H31">
-        <v>-0.03604388587801619</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>0.0100900892352556</v>
+      </c>
+      <c r="I31">
+        <v>0.02969735280881248</v>
+      </c>
+      <c r="J31">
+        <v>-0.06971533282785868</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32">
-        <v>0.03454091975178296</v>
+        <v>0.05556301956387509</v>
       </c>
       <c r="C32">
-        <v>-0.0147374931957828</v>
+        <v>-0.003316227830951677</v>
       </c>
       <c r="D32">
-        <v>0.0643151906064541</v>
+        <v>-0.02250367531116949</v>
       </c>
       <c r="E32">
-        <v>0.002063707741896906</v>
+        <v>-0.000724776604821754</v>
       </c>
       <c r="F32">
-        <v>-0.1005316392895538</v>
+        <v>0.06543413042652009</v>
       </c>
       <c r="G32">
-        <v>-0.05227037874427021</v>
+        <v>-0.04844858072760165</v>
       </c>
       <c r="H32">
-        <v>-0.03987123298723757</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>0.04164946871674681</v>
+      </c>
+      <c r="I32">
+        <v>0.01419280552131296</v>
+      </c>
+      <c r="J32">
+        <v>4.896020752591115e-05</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B33">
-        <v>0.1116076001722891</v>
+        <v>0.1113751593377356</v>
       </c>
       <c r="C33">
-        <v>0.01446710485905017</v>
+        <v>-0.04946266793949909</v>
       </c>
       <c r="D33">
-        <v>0.02056235148073896</v>
+        <v>-0.0006724623306604012</v>
       </c>
       <c r="E33">
-        <v>0.02472187083622696</v>
+        <v>-0.07012216688695558</v>
       </c>
       <c r="F33">
-        <v>-0.008605198835271125</v>
+        <v>0.04617436101909833</v>
       </c>
       <c r="G33">
-        <v>-0.0734883662035422</v>
+        <v>-0.0132974290226632</v>
       </c>
       <c r="H33">
-        <v>-0.06312640078759381</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>0.07463083484570733</v>
+      </c>
+      <c r="I33">
+        <v>0.0129159322585418</v>
+      </c>
+      <c r="J33">
+        <v>-0.03495319266399746</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B34">
-        <v>0.06965719758373849</v>
+        <v>0.0877178903961655</v>
       </c>
       <c r="C34">
-        <v>0.03722596796041711</v>
+        <v>-0.04400283369394244</v>
       </c>
       <c r="D34">
-        <v>0.001803317653100848</v>
+        <v>-0.02961434751094372</v>
       </c>
       <c r="E34">
-        <v>-0.0003711705327385176</v>
+        <v>-0.03813449273806037</v>
       </c>
       <c r="F34">
-        <v>-0.04003671664066769</v>
+        <v>0.05943544449141483</v>
       </c>
       <c r="G34">
-        <v>-0.09702027809268238</v>
+        <v>-0.004060938034166008</v>
       </c>
       <c r="H34">
-        <v>0.003111826769850041</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>0.1010748839644879</v>
+      </c>
+      <c r="I34">
+        <v>0.03022521975866436</v>
+      </c>
+      <c r="J34">
+        <v>-0.006832082800786019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B35">
-        <v>0.04330086175017492</v>
+        <v>0.02157563882746082</v>
       </c>
       <c r="C35">
-        <v>0.001162466577428595</v>
+        <v>-0.00611052639853507</v>
       </c>
       <c r="D35">
-        <v>-0.02302795247466206</v>
+        <v>0.00867998738689092</v>
       </c>
       <c r="E35">
-        <v>0.01232658988993616</v>
+        <v>-0.00770144818324734</v>
       </c>
       <c r="F35">
-        <v>0.03040292237024066</v>
+        <v>0.01909341463425774</v>
       </c>
       <c r="G35">
-        <v>-0.04540623780765075</v>
+        <v>0.0007214459415698715</v>
       </c>
       <c r="H35">
-        <v>0.01441866212372355</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>0.04287589607962934</v>
+      </c>
+      <c r="I35">
+        <v>0.01368918291993371</v>
+      </c>
+      <c r="J35">
+        <v>-0.05978409157259123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B36">
-        <v>0.0392516543294331</v>
+        <v>0.02807059295918164</v>
       </c>
       <c r="C36">
-        <v>0.0008949945015271096</v>
+        <v>-0.01160712287757516</v>
       </c>
       <c r="D36">
-        <v>0.0171726412100931</v>
+        <v>0.005513309545381295</v>
       </c>
       <c r="E36">
-        <v>-0.0248039264622711</v>
+        <v>-0.004850258187516495</v>
       </c>
       <c r="F36">
-        <v>0.01442316833060791</v>
+        <v>0.001108499115904998</v>
       </c>
       <c r="G36">
-        <v>-0.07300148344804083</v>
+        <v>-0.02550370327859209</v>
       </c>
       <c r="H36">
-        <v>-0.05986393395114048</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>0.02983613359913532</v>
+      </c>
+      <c r="I36">
+        <v>0.04048206639192597</v>
+      </c>
+      <c r="J36">
+        <v>-0.03113800396540778</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1665,114 +1887,144 @@
       <c r="H37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B38">
-        <v>0.05274161666507228</v>
+        <v>0.01715113352709899</v>
       </c>
       <c r="C38">
-        <v>0.02042503435913671</v>
+        <v>-0.00631157227810452</v>
       </c>
       <c r="D38">
-        <v>0.00622126616374728</v>
+        <v>-0.006481669185156733</v>
       </c>
       <c r="E38">
-        <v>-0.006284855610448004</v>
+        <v>-0.01047936426609239</v>
       </c>
       <c r="F38">
-        <v>-0.03986723937003753</v>
+        <v>-0.02871339364020989</v>
       </c>
       <c r="G38">
-        <v>-0.05373865215419527</v>
+        <v>0.01708009717444085</v>
       </c>
       <c r="H38">
-        <v>0.001424469657977747</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>-0.01055266998300551</v>
+      </c>
+      <c r="I38">
+        <v>-0.04289539730211001</v>
+      </c>
+      <c r="J38">
+        <v>-0.01446795468883486</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B39">
-        <v>0.1061714905774527</v>
+        <v>0.1549063461336317</v>
       </c>
       <c r="C39">
-        <v>0.04152093971094455</v>
+        <v>-0.1054513643332549</v>
       </c>
       <c r="D39">
-        <v>0.0624848106907091</v>
+        <v>-0.02878854680023479</v>
       </c>
       <c r="E39">
-        <v>-0.02013301744590875</v>
+        <v>-0.05793820454903462</v>
       </c>
       <c r="F39">
-        <v>-0.03077497022162773</v>
+        <v>0.1605513817554243</v>
       </c>
       <c r="G39">
-        <v>-0.150834675067808</v>
+        <v>-0.003731919027093735</v>
       </c>
       <c r="H39">
-        <v>0.1184701766227005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>0.1668109244309488</v>
+      </c>
+      <c r="I39">
+        <v>0.03081915262691689</v>
+      </c>
+      <c r="J39">
+        <v>-0.004629157151449894</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B40">
-        <v>0.04617002096160474</v>
+        <v>0.01767520133532479</v>
       </c>
       <c r="C40">
-        <v>0.01640933832200336</v>
+        <v>-0.006844337120604067</v>
       </c>
       <c r="D40">
-        <v>0.04761115080012906</v>
+        <v>-0.01415331310528463</v>
       </c>
       <c r="E40">
-        <v>0.02917822905386281</v>
+        <v>0.006336836858919517</v>
       </c>
       <c r="F40">
-        <v>0.03535277705907274</v>
+        <v>-0.04753437451894352</v>
       </c>
       <c r="G40">
-        <v>-0.2902442151418561</v>
+        <v>-0.0382560223559673</v>
       </c>
       <c r="H40">
-        <v>0.09705706604829803</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>0.08784654134159958</v>
+      </c>
+      <c r="I40">
+        <v>0.05766657208507057</v>
+      </c>
+      <c r="J40">
+        <v>0.01072605415717872</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B41">
-        <v>0.05085944857748793</v>
+        <v>0.02547582267354769</v>
       </c>
       <c r="C41">
-        <v>0.02789328655929613</v>
+        <v>0.006728640148023337</v>
       </c>
       <c r="D41">
-        <v>-0.02594040442211059</v>
+        <v>-0.03007939041694228</v>
       </c>
       <c r="E41">
-        <v>-0.005035884577626297</v>
+        <v>-0.005228288812492306</v>
       </c>
       <c r="F41">
-        <v>-0.045678517978122</v>
+        <v>0.01160141939959219</v>
       </c>
       <c r="G41">
-        <v>-0.05127893924175869</v>
+        <v>0.01021807118512572</v>
       </c>
       <c r="H41">
-        <v>-0.003433338145310169</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>0.007781064457460643</v>
+      </c>
+      <c r="I41">
+        <v>0.004710505689867199</v>
+      </c>
+      <c r="J41">
+        <v>-0.05407629535008357</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1795,62 +2047,80 @@
       <c r="H42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B43">
-        <v>0.07412188116764461</v>
+        <v>0.03898356248982615</v>
       </c>
       <c r="C43">
-        <v>0.02580700171894995</v>
+        <v>-0.00070519065834972</v>
       </c>
       <c r="D43">
-        <v>0.02844510978449491</v>
+        <v>-0.03807039976997386</v>
       </c>
       <c r="E43">
-        <v>-0.01365166976142795</v>
+        <v>-0.03177977016229799</v>
       </c>
       <c r="F43">
-        <v>-0.03858781128987011</v>
+        <v>-0.00328119656957958</v>
       </c>
       <c r="G43">
-        <v>-0.01227614561514188</v>
+        <v>-0.0007895890757958521</v>
       </c>
       <c r="H43">
-        <v>-0.007039639870264185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>0.007618282322672061</v>
+      </c>
+      <c r="I43">
+        <v>0.008090026065974133</v>
+      </c>
+      <c r="J43">
+        <v>-0.07616524650368302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B44">
-        <v>0.08088158118831211</v>
+        <v>0.1319912404716955</v>
       </c>
       <c r="C44">
-        <v>0.005492516771617634</v>
+        <v>-0.06835456120854155</v>
       </c>
       <c r="D44">
-        <v>0.05992528375685361</v>
+        <v>0.009977795905378107</v>
       </c>
       <c r="E44">
-        <v>-0.1093017172354382</v>
+        <v>-0.03466729037641743</v>
       </c>
       <c r="F44">
-        <v>-0.04201941927990905</v>
+        <v>-0.04088271559050487</v>
       </c>
       <c r="G44">
-        <v>-0.08920564934263905</v>
+        <v>0.01952647768945991</v>
       </c>
       <c r="H44">
-        <v>-0.01846176557780753</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>0.2144213460642304</v>
+      </c>
+      <c r="I44">
+        <v>0.06076953878312457</v>
+      </c>
+      <c r="J44">
+        <v>0.1126830168567041</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1873,296 +2143,368 @@
       <c r="H45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B46">
-        <v>0.05257162478766422</v>
+        <v>0.02408312618816511</v>
       </c>
       <c r="C46">
-        <v>0.0351024488947038</v>
+        <v>0.003819605879805055</v>
       </c>
       <c r="D46">
-        <v>0.04800588765786309</v>
+        <v>-0.02180100922559215</v>
       </c>
       <c r="E46">
-        <v>-0.004159701236870993</v>
+        <v>-0.03085861380921818</v>
       </c>
       <c r="F46">
-        <v>-0.02642228285123439</v>
+        <v>-0.02518945101289571</v>
       </c>
       <c r="G46">
-        <v>-0.01888864834392677</v>
+        <v>0.00848875964610463</v>
       </c>
       <c r="H46">
-        <v>-0.08980681923679117</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>0.049787410145873</v>
+      </c>
+      <c r="I46">
+        <v>0.01126159871403182</v>
+      </c>
+      <c r="J46">
+        <v>-0.1101544684897643</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B47">
-        <v>0.05004693700570628</v>
+        <v>0.04370420730914366</v>
       </c>
       <c r="C47">
-        <v>-0.00159753740840669</v>
+        <v>0.0009278468361025658</v>
       </c>
       <c r="D47">
-        <v>0.04836496591491583</v>
+        <v>-0.01415386536005113</v>
       </c>
       <c r="E47">
-        <v>0.02363120308436432</v>
+        <v>-0.007438897690809315</v>
       </c>
       <c r="F47">
-        <v>0.03367876462035971</v>
+        <v>-0.000672038431846503</v>
       </c>
       <c r="G47">
-        <v>-0.03325553964188487</v>
+        <v>-0.03141949373537464</v>
       </c>
       <c r="H47">
-        <v>-0.04688633361629711</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>0.04313748715020134</v>
+      </c>
+      <c r="I47">
+        <v>0.04287299126073283</v>
+      </c>
+      <c r="J47">
+        <v>-0.04548118138068728</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B48">
-        <v>0.04332978214521269</v>
+        <v>0.04127113906490459</v>
       </c>
       <c r="C48">
-        <v>0.001749314199898202</v>
+        <v>-0.01229267293373066</v>
       </c>
       <c r="D48">
-        <v>0.02786987790570537</v>
+        <v>0.009828813412973673</v>
       </c>
       <c r="E48">
-        <v>0.03640265811414013</v>
+        <v>-0.01059888619262041</v>
       </c>
       <c r="F48">
-        <v>0.02474984407373067</v>
+        <v>0.01894974355219007</v>
       </c>
       <c r="G48">
-        <v>-0.0552888880467955</v>
+        <v>-0.02998348436928435</v>
       </c>
       <c r="H48">
-        <v>-0.01757647656448589</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>0.05808169802252481</v>
+      </c>
+      <c r="I48">
+        <v>0.03506136627643811</v>
+      </c>
+      <c r="J48">
+        <v>-0.06667622062382063</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B49">
-        <v>0.243273053784014</v>
+        <v>0.229901994888125</v>
       </c>
       <c r="C49">
-        <v>0.05739955315116271</v>
+        <v>0.0007877298879135363</v>
       </c>
       <c r="D49">
-        <v>-0.1049457537812227</v>
+        <v>-0.06098049240031542</v>
       </c>
       <c r="E49">
-        <v>0.004421167670367191</v>
+        <v>0.02226669013952728</v>
       </c>
       <c r="F49">
-        <v>0.04271609850191024</v>
+        <v>-0.004593024524328575</v>
       </c>
       <c r="G49">
-        <v>0.2084285596707205</v>
+        <v>0.1102782158731429</v>
       </c>
       <c r="H49">
-        <v>0.1191588645785172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>-0.09307522187384064</v>
+      </c>
+      <c r="I49">
+        <v>-0.0967978047003117</v>
+      </c>
+      <c r="J49">
+        <v>0.2705287770455669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B50">
-        <v>0.05558948238055546</v>
+        <v>0.04418553856386313</v>
       </c>
       <c r="C50">
-        <v>0.01828406657818017</v>
+        <v>-0.01933124249842505</v>
       </c>
       <c r="D50">
-        <v>0.02390789241815009</v>
+        <v>-0.0275207821467708</v>
       </c>
       <c r="E50">
-        <v>0.01417578974660282</v>
+        <v>-0.01283511102013812</v>
       </c>
       <c r="F50">
-        <v>-0.02521837337709274</v>
+        <v>0.00646870781848122</v>
       </c>
       <c r="G50">
-        <v>-0.02023897132472931</v>
+        <v>-0.002255858862278152</v>
       </c>
       <c r="H50">
-        <v>-0.0681483993445253</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>0.03165138454963722</v>
+      </c>
+      <c r="I50">
+        <v>0.012958243980755</v>
+      </c>
+      <c r="J50">
+        <v>-0.06535334845403644</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B51">
-        <v>0.0338932658564179</v>
+        <v>0.0145774951087256</v>
       </c>
       <c r="C51">
-        <v>0.01147638339538565</v>
+        <v>0.008319002316416205</v>
       </c>
       <c r="D51">
-        <v>0.01460999314521224</v>
+        <v>-0.001911603998899989</v>
       </c>
       <c r="E51">
-        <v>-0.02323182871718903</v>
+        <v>-0.01623824760809796</v>
       </c>
       <c r="F51">
-        <v>-0.02957023221909231</v>
+        <v>-0.01310967901891742</v>
       </c>
       <c r="G51">
-        <v>0.01646182260341912</v>
+        <v>0.02270789144964833</v>
       </c>
       <c r="H51">
-        <v>0.03737220661457263</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>-0.007741842941442655</v>
+      </c>
+      <c r="I51">
+        <v>0.004547162410815053</v>
+      </c>
+      <c r="J51">
+        <v>0.01970255553464363</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>0.1027350756706563</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>-0.06086159112577333</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>0.03079949379948054</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.02671819162281768</v>
       </c>
       <c r="F52">
-        <v>0</v>
+        <v>0.02476532653388794</v>
       </c>
       <c r="G52">
-        <v>0</v>
+        <v>-0.005825322649981482</v>
       </c>
       <c r="H52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>0.03269461574170974</v>
+      </c>
+      <c r="I52">
+        <v>-0.05916758928051005</v>
+      </c>
+      <c r="J52">
+        <v>-0.08407184661140724</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B53">
-        <v>0.1664998345784443</v>
+        <v>0.1547707754507482</v>
       </c>
       <c r="C53">
-        <v>0.008986695529696468</v>
+        <v>-0.004244745564807542</v>
       </c>
       <c r="D53">
-        <v>-0.001066654973605518</v>
+        <v>0.00561995996394246</v>
       </c>
       <c r="E53">
-        <v>0.04165346091713398</v>
+        <v>0.02168277862594041</v>
       </c>
       <c r="F53">
-        <v>-0.1721308319127163</v>
+        <v>-0.04925869760459741</v>
       </c>
       <c r="G53">
-        <v>0.0368220803710129</v>
+        <v>0.05904972241739843</v>
       </c>
       <c r="H53">
-        <v>-0.05232708629769655</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>-0.07602988868556322</v>
+      </c>
+      <c r="I53">
+        <v>-0.1432210648983941</v>
+      </c>
+      <c r="J53">
+        <v>-0.1630969454048831</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B54">
-        <v>0.05273042046335082</v>
+        <v>0.04995469373313555</v>
       </c>
       <c r="C54">
-        <v>0.003365929925300414</v>
+        <v>-0.004038100148092567</v>
       </c>
       <c r="D54">
-        <v>0.02450577719703955</v>
+        <v>-0.01038990975244546</v>
       </c>
       <c r="E54">
-        <v>-0.006075831175463643</v>
+        <v>-0.01305062116559024</v>
       </c>
       <c r="F54">
-        <v>0.008704356188305949</v>
+        <v>-0.01131351630129114</v>
       </c>
       <c r="G54">
-        <v>-0.06094088924583839</v>
+        <v>-0.02686480340073275</v>
       </c>
       <c r="H54">
-        <v>-0.1007473267160504</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>0.05888592424311835</v>
+      </c>
+      <c r="I54">
+        <v>0.07893401142255181</v>
+      </c>
+      <c r="J54">
+        <v>-0.1143673177596541</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B55">
-        <v>0.1033862158476493</v>
+        <v>0.09155582922759595</v>
       </c>
       <c r="C55">
-        <v>0.01303809963590508</v>
+        <v>-0.02042805789113573</v>
       </c>
       <c r="D55">
-        <v>0.01002906314169799</v>
+        <v>0.01932472807946863</v>
       </c>
       <c r="E55">
-        <v>0.01606202684108968</v>
+        <v>-0.03088635548153912</v>
       </c>
       <c r="F55">
-        <v>-0.09179471876718837</v>
+        <v>0.005328563995190148</v>
       </c>
       <c r="G55">
-        <v>-0.02698662487171654</v>
+        <v>0.01794978897369809</v>
       </c>
       <c r="H55">
-        <v>-0.08439852820802732</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>-0.01641193860493234</v>
+      </c>
+      <c r="I55">
+        <v>-0.03631507357117086</v>
+      </c>
+      <c r="J55">
+        <v>-0.1163342723203478</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B56">
-        <v>0.1686022533014874</v>
+        <v>0.1598353210867778</v>
       </c>
       <c r="C56">
-        <v>0.007273410674266843</v>
+        <v>-0.01534418798405261</v>
       </c>
       <c r="D56">
-        <v>-0.008230078765025321</v>
+        <v>-0.006485051126044938</v>
       </c>
       <c r="E56">
-        <v>0.07543877547485171</v>
+        <v>-0.01091060009930706</v>
       </c>
       <c r="F56">
-        <v>-0.1675865278551079</v>
+        <v>-0.01264497118077598</v>
       </c>
       <c r="G56">
-        <v>0.02497791925862906</v>
+        <v>0.05133924870138493</v>
       </c>
       <c r="H56">
-        <v>-0.04948368615278256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>-0.00750664248532509</v>
+      </c>
+      <c r="I56">
+        <v>-0.113353559534465</v>
+      </c>
+      <c r="J56">
+        <v>-0.1478747402565313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2185,1154 +2527,1424 @@
       <c r="H57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B58">
-        <v>0.01869159957611756</v>
+        <v>0.03819585448088368</v>
       </c>
       <c r="C58">
-        <v>0.06400724643745455</v>
+        <v>-0.01673114534280424</v>
       </c>
       <c r="D58">
-        <v>0.1056659663819232</v>
+        <v>-0.01635077205312504</v>
       </c>
       <c r="E58">
-        <v>0.01078410639008891</v>
+        <v>-0.008799796994922025</v>
       </c>
       <c r="F58">
-        <v>0.505546765962109</v>
+        <v>-0.05506625475570293</v>
       </c>
       <c r="G58">
-        <v>-0.206512157274893</v>
+        <v>-0.04203672328589877</v>
       </c>
       <c r="H58">
-        <v>0.2200828707882037</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>0.1101659959054365</v>
+      </c>
+      <c r="I58">
+        <v>-0.01697622657545776</v>
+      </c>
+      <c r="J58">
+        <v>-0.03842583222943341</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B59">
-        <v>0.1495530685496429</v>
+        <v>0.1374089928447732</v>
       </c>
       <c r="C59">
-        <v>-0.3723558238574599</v>
+        <v>0.3049780003732834</v>
       </c>
       <c r="D59">
-        <v>-0.02696084882710435</v>
+        <v>0.06599068853652013</v>
       </c>
       <c r="E59">
-        <v>-0.04501466030619759</v>
+        <v>-0.04249150088252632</v>
       </c>
       <c r="F59">
-        <v>-0.03957653606787941</v>
+        <v>0.04575354987641361</v>
       </c>
       <c r="G59">
-        <v>0.007154748068996261</v>
+        <v>0.04588149313461626</v>
       </c>
       <c r="H59">
-        <v>0.0319618849915982</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>-0.04085469934208551</v>
+      </c>
+      <c r="I59">
+        <v>0.07602121558464782</v>
+      </c>
+      <c r="J59">
+        <v>0.02440981056712537</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B60">
-        <v>0.279696593924653</v>
+        <v>0.28605080600572</v>
       </c>
       <c r="C60">
-        <v>0.04905944425581637</v>
+        <v>-0.06809199420877352</v>
       </c>
       <c r="D60">
-        <v>-0.06471008114224093</v>
+        <v>0.002984796762515483</v>
       </c>
       <c r="E60">
-        <v>-0.03913271761428203</v>
+        <v>0.0793216911449962</v>
       </c>
       <c r="F60">
-        <v>0.05101729025755355</v>
+        <v>-0.0417351162126845</v>
       </c>
       <c r="G60">
-        <v>0.1839891094353055</v>
+        <v>0.179311117415056</v>
       </c>
       <c r="H60">
-        <v>0.09593594299901821</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>-0.1282706312469758</v>
+      </c>
+      <c r="I60">
+        <v>-0.09009263144058952</v>
+      </c>
+      <c r="J60">
+        <v>0.4608137663972052</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B61">
-        <v>0.09324533023854584</v>
+        <v>0.121042952951425</v>
       </c>
       <c r="C61">
-        <v>0.01937957168638275</v>
+        <v>-0.06362494924515463</v>
       </c>
       <c r="D61">
-        <v>0.0240352627456537</v>
+        <v>0.0004361146216844939</v>
       </c>
       <c r="E61">
-        <v>-0.01546726205835398</v>
+        <v>-0.04379816967448173</v>
       </c>
       <c r="F61">
-        <v>-0.037217580124097</v>
+        <v>0.1049405847229969</v>
       </c>
       <c r="G61">
-        <v>-0.07706728173393873</v>
+        <v>-0.006535646091952202</v>
       </c>
       <c r="H61">
-        <v>0.0323579257417831</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>0.1428601387561471</v>
+      </c>
+      <c r="I61">
+        <v>0.09851185050602924</v>
+      </c>
+      <c r="J61">
+        <v>-0.04914919443467532</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B62">
-        <v>0.1451562787772198</v>
+        <v>0.1602117909346471</v>
       </c>
       <c r="C62">
-        <v>0.03762814476111749</v>
+        <v>-0.02718472674628831</v>
       </c>
       <c r="D62">
-        <v>-0.05973163331015399</v>
+        <v>-0.002431958599656867</v>
       </c>
       <c r="E62">
-        <v>0.08702798412624838</v>
+        <v>0.003901310170671853</v>
       </c>
       <c r="F62">
-        <v>-0.1709655790428505</v>
+        <v>-0.002642689277616178</v>
       </c>
       <c r="G62">
-        <v>0.02655455857540489</v>
+        <v>0.0212330857097737</v>
       </c>
       <c r="H62">
-        <v>-0.07889654540700088</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>-0.03852719127389086</v>
+      </c>
+      <c r="I62">
+        <v>-0.1061721209056418</v>
+      </c>
+      <c r="J62">
+        <v>-0.1311008105153925</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B63">
-        <v>0.04545059214756918</v>
+        <v>0.04836848085291724</v>
       </c>
       <c r="C63">
-        <v>0.01783654592303379</v>
+        <v>-0.02090846331534282</v>
       </c>
       <c r="D63">
-        <v>9.996920529563984e-05</v>
+        <v>0.003133961862930853</v>
       </c>
       <c r="E63">
-        <v>0.01654251417031496</v>
+        <v>-0.02815165434132788</v>
       </c>
       <c r="F63">
-        <v>0.01020762253812679</v>
+        <v>0.02613146273261425</v>
       </c>
       <c r="G63">
-        <v>-0.03368782579616331</v>
+        <v>-0.0499810327910283</v>
       </c>
       <c r="H63">
-        <v>-0.1103270099038731</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>0.03838146143104402</v>
+      </c>
+      <c r="I63">
+        <v>0.04797493708025009</v>
+      </c>
+      <c r="J63">
+        <v>-0.07225353180755588</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B64">
-        <v>0.109506203214924</v>
+        <v>0.101282200491789</v>
       </c>
       <c r="C64">
-        <v>0.008591530361199157</v>
+        <v>-0.02055118156431228</v>
       </c>
       <c r="D64">
-        <v>0.01514670853583049</v>
+        <v>-0.009946047166561398</v>
       </c>
       <c r="E64">
-        <v>-0.03487839220209575</v>
+        <v>-0.008605832076346952</v>
       </c>
       <c r="F64">
-        <v>-0.01435943226421881</v>
+        <v>0.005007568749864618</v>
       </c>
       <c r="G64">
-        <v>-0.0262967443940226</v>
+        <v>0.04512477324360645</v>
       </c>
       <c r="H64">
-        <v>-0.003935803386864075</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>0.06389395807241097</v>
+      </c>
+      <c r="I64">
+        <v>0.03401403238119027</v>
+      </c>
+      <c r="J64">
+        <v>0.0140490999390503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B65">
-        <v>0.10612934123921</v>
+        <v>0.1158440412581883</v>
       </c>
       <c r="C65">
-        <v>0.03217106350976303</v>
+        <v>-0.01179180115366876</v>
       </c>
       <c r="D65">
-        <v>-0.001911013208595466</v>
+        <v>0.01196884600621313</v>
       </c>
       <c r="E65">
-        <v>-0.007888166706088124</v>
+        <v>0.01940184577111481</v>
       </c>
       <c r="F65">
-        <v>0.4617764460364496</v>
+        <v>0.01302263065274463</v>
       </c>
       <c r="G65">
-        <v>0.1211819063905904</v>
+        <v>-0.08978181109557913</v>
       </c>
       <c r="H65">
-        <v>-0.5559795652060143</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>-0.04328966643818009</v>
+      </c>
+      <c r="I65">
+        <v>0.03167880995421178</v>
+      </c>
+      <c r="J65">
+        <v>0.08657379366696925</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B66">
-        <v>0.1533184674975488</v>
+        <v>0.1832461387271818</v>
       </c>
       <c r="C66">
-        <v>0.04843462074894342</v>
+        <v>-0.1085233786275618</v>
       </c>
       <c r="D66">
-        <v>0.01287725331507272</v>
+        <v>-0.04279631112909597</v>
       </c>
       <c r="E66">
-        <v>-0.05646449893821814</v>
+        <v>-0.06116876764365932</v>
       </c>
       <c r="F66">
-        <v>-0.1239835166423268</v>
+        <v>0.1667087519002844</v>
       </c>
       <c r="G66">
-        <v>-0.2520612483035153</v>
+        <v>0.01150531407328921</v>
       </c>
       <c r="H66">
-        <v>0.1947086162735373</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>0.1666842044256181</v>
+      </c>
+      <c r="I66">
+        <v>0.0240937367836662</v>
+      </c>
+      <c r="J66">
+        <v>0.0392158595904438</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B67">
-        <v>0.1076856059920381</v>
+        <v>0.08521495553021105</v>
       </c>
       <c r="C67">
-        <v>0.03993293379775704</v>
+        <v>-0.035364069270627</v>
       </c>
       <c r="D67">
-        <v>-0.01193017822260457</v>
+        <v>0.0102219914796987</v>
       </c>
       <c r="E67">
-        <v>-0.03446405260708846</v>
+        <v>-0.07795561768832582</v>
       </c>
       <c r="F67">
-        <v>-0.06518088131426002</v>
+        <v>-0.03564809112447923</v>
       </c>
       <c r="G67">
-        <v>-0.03083602703739679</v>
+        <v>0.04966199243086307</v>
       </c>
       <c r="H67">
-        <v>0.0008733545645552579</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>-0.08015609927558734</v>
+      </c>
+      <c r="I67">
+        <v>-0.02952019450897891</v>
+      </c>
+      <c r="J67">
+        <v>0.04165463223234985</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B68">
-        <v>0.04049661370266251</v>
+        <v>0.05786328484466077</v>
       </c>
       <c r="C68">
-        <v>-0.2934541229264483</v>
+        <v>0.2759698064370181</v>
       </c>
       <c r="D68">
-        <v>0.003522792404724036</v>
+        <v>0.06607505074372551</v>
       </c>
       <c r="E68">
-        <v>0.02271871097292207</v>
+        <v>-0.02605680745841338</v>
       </c>
       <c r="F68">
-        <v>0.02549027272982055</v>
+        <v>0.0646861497340738</v>
       </c>
       <c r="G68">
-        <v>0.01539697107049427</v>
+        <v>-0.02606617208651082</v>
       </c>
       <c r="H68">
-        <v>-0.03370732708831899</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>0.03982045412862863</v>
+      </c>
+      <c r="I68">
+        <v>0.04270870502186652</v>
+      </c>
+      <c r="J68">
+        <v>0.009368516030419303</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B69">
-        <v>0.04984560256402485</v>
+        <v>0.03842116298520708</v>
       </c>
       <c r="C69">
-        <v>0.01023509499050982</v>
+        <v>-0.001110951793419263</v>
       </c>
       <c r="D69">
-        <v>0.00428168503296393</v>
+        <v>0.01242282844243498</v>
       </c>
       <c r="E69">
-        <v>0.04055626231468386</v>
+        <v>-0.02188383222991171</v>
       </c>
       <c r="F69">
-        <v>-0.0003121447891780604</v>
+        <v>-0.001214405922479416</v>
       </c>
       <c r="G69">
-        <v>-0.01395422488173824</v>
+        <v>-0.002653422969663297</v>
       </c>
       <c r="H69">
-        <v>-0.00777225663508609</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>0.02070854352275506</v>
+      </c>
+      <c r="I69">
+        <v>-0.00195537099162542</v>
+      </c>
+      <c r="J69">
+        <v>-0.01801392310205497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B70">
-        <v>0.08195005204391236</v>
+        <v>0.03917010010500601</v>
       </c>
       <c r="C70">
-        <v>0.008093165359179652</v>
+        <v>0.008347876290480446</v>
       </c>
       <c r="D70">
-        <v>-0.03389370624408444</v>
+        <v>0.02080836839029391</v>
       </c>
       <c r="E70">
-        <v>-0.05348665188695027</v>
+        <v>-0.02601058268335896</v>
       </c>
       <c r="F70">
-        <v>-0.01679175574076019</v>
+        <v>0.01441551815084747</v>
       </c>
       <c r="G70">
-        <v>0.04859890121879289</v>
+        <v>0.06334831487519955</v>
       </c>
       <c r="H70">
-        <v>-0.007272157411722448</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>-0.008629525586494489</v>
+      </c>
+      <c r="I70">
+        <v>-0.003576662674067201</v>
+      </c>
+      <c r="J70">
+        <v>-0.07771053537265944</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B71">
-        <v>0.05021141194149571</v>
+        <v>0.06704452326468861</v>
       </c>
       <c r="C71">
-        <v>-0.3009451989149663</v>
+        <v>0.2950126348780646</v>
       </c>
       <c r="D71">
-        <v>-0.003360358317847988</v>
+        <v>0.07191109200213727</v>
       </c>
       <c r="E71">
-        <v>-0.005288133794493109</v>
+        <v>-0.02824868005789628</v>
       </c>
       <c r="F71">
-        <v>0.00654708594658561</v>
+        <v>0.05170810482650161</v>
       </c>
       <c r="G71">
-        <v>-0.00461541357378316</v>
+        <v>-0.004737433244347896</v>
       </c>
       <c r="H71">
-        <v>0.002518313863972541</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>0.05327870099431679</v>
+      </c>
+      <c r="I71">
+        <v>0.04426134774331425</v>
+      </c>
+      <c r="J71">
+        <v>0.033959950181199</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B72">
-        <v>0.1282740138596615</v>
+        <v>0.1340000891958206</v>
       </c>
       <c r="C72">
-        <v>-0.01466778622463966</v>
+        <v>0.02404660133892051</v>
       </c>
       <c r="D72">
-        <v>-0.07665380850810739</v>
+        <v>-0.01269178060605513</v>
       </c>
       <c r="E72">
-        <v>0.1345404157382475</v>
+        <v>-0.0211563309081931</v>
       </c>
       <c r="F72">
-        <v>-0.008549469663858235</v>
+        <v>0.01184311832588981</v>
       </c>
       <c r="G72">
-        <v>-0.04184606163654988</v>
+        <v>-0.0322322366710019</v>
       </c>
       <c r="H72">
-        <v>-0.08377939555280593</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>-0.05621984083694991</v>
+      </c>
+      <c r="I72">
+        <v>-0.009141197134138628</v>
+      </c>
+      <c r="J72">
+        <v>-0.0461238390776678</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B73">
-        <v>0.272710101091222</v>
+        <v>0.2340843814937364</v>
       </c>
       <c r="C73">
-        <v>0.1398365668034191</v>
+        <v>-0.01376400132367089</v>
       </c>
       <c r="D73">
-        <v>-0.1298613591196885</v>
+        <v>-0.02874309537563629</v>
       </c>
       <c r="E73">
-        <v>-0.07558440669818971</v>
+        <v>-0.008769302987118237</v>
       </c>
       <c r="F73">
-        <v>0.2237351764753102</v>
+        <v>-0.01387182129987344</v>
       </c>
       <c r="G73">
-        <v>0.3340693385095381</v>
+        <v>0.256553414183418</v>
       </c>
       <c r="H73">
-        <v>0.3530449940673864</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>-0.1689795688697451</v>
+      </c>
+      <c r="I73">
+        <v>-0.2145839204602373</v>
+      </c>
+      <c r="J73">
+        <v>0.318540965929929</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B74">
-        <v>0.1029612611871211</v>
+        <v>0.1093817432502903</v>
       </c>
       <c r="C74">
-        <v>0.03569542922672976</v>
+        <v>-0.02118705178676763</v>
       </c>
       <c r="D74">
-        <v>0.005410345974051926</v>
+        <v>-0.02548396981650873</v>
       </c>
       <c r="E74">
-        <v>0.01360351524433637</v>
+        <v>-0.01500124313954422</v>
       </c>
       <c r="F74">
-        <v>-0.08641245137334654</v>
+        <v>-0.002116376553558051</v>
       </c>
       <c r="G74">
-        <v>0.04029659253263375</v>
+        <v>0.01299743991418952</v>
       </c>
       <c r="H74">
-        <v>-0.0363801976297802</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>0.01941195827712542</v>
+      </c>
+      <c r="I74">
+        <v>-0.09707440519088374</v>
+      </c>
+      <c r="J74">
+        <v>-0.1014201339564712</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B75">
-        <v>0.09834424040427792</v>
+        <v>0.1226877617939284</v>
       </c>
       <c r="C75">
-        <v>0.02153500509394494</v>
+        <v>-0.03109992779974465</v>
       </c>
       <c r="D75">
-        <v>-0.006437683233414419</v>
+        <v>-0.0227485422897092</v>
       </c>
       <c r="E75">
-        <v>0.06763885053759087</v>
+        <v>-0.006894311839908806</v>
       </c>
       <c r="F75">
-        <v>-0.05747830502223607</v>
+        <v>-0.008108383521061852</v>
       </c>
       <c r="G75">
-        <v>0.02792800008281171</v>
+        <v>-0.01648848821081905</v>
       </c>
       <c r="H75">
-        <v>-0.02896194787748082</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>-0.0084679052900965</v>
+      </c>
+      <c r="I75">
+        <v>-0.05173947890808947</v>
+      </c>
+      <c r="J75">
+        <v>-0.1182313825561326</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B76">
-        <v>0.1461758357264731</v>
+        <v>0.0442279465300294</v>
       </c>
       <c r="C76">
-        <v>0.0313560469317796</v>
+        <v>0.00391441547912418</v>
       </c>
       <c r="D76">
-        <v>0.03653951018379684</v>
+        <v>-0.01004604668225546</v>
       </c>
       <c r="E76">
-        <v>0.03965294771533915</v>
+        <v>-0.02785630980891977</v>
       </c>
       <c r="F76">
-        <v>-0.1739529424972097</v>
+        <v>-0.03453048284264697</v>
       </c>
       <c r="G76">
-        <v>0.06435054247270569</v>
+        <v>0.04021969354539533</v>
       </c>
       <c r="H76">
-        <v>-0.05359682528952361</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>-0.03960555193239362</v>
+      </c>
+      <c r="I76">
+        <v>-0.02878275496110929</v>
+      </c>
+      <c r="J76">
+        <v>-0.07191189030022793</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B77">
-        <v>0.07469508350102824</v>
+        <v>0.08874907861305621</v>
       </c>
       <c r="C77">
-        <v>-0.01309004749582739</v>
+        <v>-0.08057325283380154</v>
       </c>
       <c r="D77">
-        <v>0.007777492755052336</v>
+        <v>-0.01484821363530549</v>
       </c>
       <c r="E77">
-        <v>-0.1153053227009259</v>
+        <v>0.007475074683716438</v>
       </c>
       <c r="F77">
-        <v>0.2023263035319965</v>
+        <v>0.01341271867942202</v>
       </c>
       <c r="G77">
-        <v>-0.1502285345436311</v>
+        <v>-0.003893257132531527</v>
       </c>
       <c r="H77">
-        <v>0.1811371203429404</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>0.07565892142878296</v>
+      </c>
+      <c r="I77">
+        <v>0.2087782593455652</v>
+      </c>
+      <c r="J77">
+        <v>0.1946687051394156</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B78">
-        <v>0.230606624073037</v>
+        <v>0.1376389878612562</v>
       </c>
       <c r="C78">
-        <v>0.03747497382701626</v>
+        <v>-0.02100426420422764</v>
       </c>
       <c r="D78">
-        <v>0.1570740012445958</v>
+        <v>-0.1499717325049162</v>
       </c>
       <c r="E78">
-        <v>-0.09222785677342878</v>
+        <v>-0.2320107575557813</v>
       </c>
       <c r="F78">
-        <v>0.06610778142243037</v>
+        <v>-0.2897321727280797</v>
       </c>
       <c r="G78">
-        <v>-0.1930726062523041</v>
+        <v>-0.09636203787207498</v>
       </c>
       <c r="H78">
-        <v>-0.09286700441657667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>-0.5380728046841061</v>
+      </c>
+      <c r="I78">
+        <v>0.6330471124757017</v>
+      </c>
+      <c r="J78">
+        <v>-0.06073849274542064</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B79">
-        <v>0.1405741977595824</v>
+        <v>0.1411399158853131</v>
       </c>
       <c r="C79">
-        <v>0.01102636315851262</v>
+        <v>-0.02080350726409501</v>
       </c>
       <c r="D79">
-        <v>-0.008930660467795514</v>
+        <v>-0.04285222361837747</v>
       </c>
       <c r="E79">
-        <v>0.04864297988161854</v>
+        <v>0.00571664556857971</v>
       </c>
       <c r="F79">
-        <v>-0.09030187203260101</v>
+        <v>-0.007259000762671167</v>
       </c>
       <c r="G79">
-        <v>-0.007864524296836786</v>
+        <v>0.02615552163527472</v>
       </c>
       <c r="H79">
-        <v>-0.07132936477072087</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>-0.0005062324909269687</v>
+      </c>
+      <c r="I79">
+        <v>-0.1028636077865781</v>
+      </c>
+      <c r="J79">
+        <v>-0.1245488018734338</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B80">
-        <v>0.04301223274482151</v>
+        <v>0.07677412945760939</v>
       </c>
       <c r="C80">
-        <v>-0.009174338899830452</v>
+        <v>-0.04981279186880692</v>
       </c>
       <c r="D80">
-        <v>-0.1063555483687857</v>
+        <v>0.01646560122274758</v>
       </c>
       <c r="E80">
-        <v>-0.04018012493250869</v>
+        <v>-0.02993200736445378</v>
       </c>
       <c r="F80">
-        <v>0.03656770806100373</v>
+        <v>0.05318866120990678</v>
       </c>
       <c r="G80">
-        <v>-0.02534203520533366</v>
+        <v>0.006199363929071729</v>
       </c>
       <c r="H80">
-        <v>-0.1165505339567116</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>0.0243224287452056</v>
+      </c>
+      <c r="I80">
+        <v>0.02682464190250581</v>
+      </c>
+      <c r="J80">
+        <v>-0.1365654813831489</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B81">
-        <v>0.1088898820587041</v>
+        <v>0.1406297571005279</v>
       </c>
       <c r="C81">
-        <v>0.001567618236531081</v>
+        <v>-0.03706411301686048</v>
       </c>
       <c r="D81">
-        <v>0.003316868439949411</v>
+        <v>-0.02908357699990736</v>
       </c>
       <c r="E81">
-        <v>0.02141428467261124</v>
+        <v>-0.0194351245700606</v>
       </c>
       <c r="F81">
-        <v>-0.1180338728430133</v>
+        <v>-0.01056542840824428</v>
       </c>
       <c r="G81">
-        <v>-0.0009277044098636094</v>
+        <v>0.008919758359501522</v>
       </c>
       <c r="H81">
-        <v>-0.03488006569406701</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>0.01821150095547169</v>
+      </c>
+      <c r="I81">
+        <v>-0.02707966353005125</v>
+      </c>
+      <c r="J81">
+        <v>-0.1506017096452649</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B82">
-        <v>0.1197487186920584</v>
+        <v>0.1608541141391714</v>
       </c>
       <c r="C82">
-        <v>0.01823192681715293</v>
+        <v>-0.044090103808259</v>
       </c>
       <c r="D82">
-        <v>-0.02732855917474838</v>
+        <v>0.005976265356259723</v>
       </c>
       <c r="E82">
-        <v>-0.03497381762904443</v>
+        <v>-0.002784911337139972</v>
       </c>
       <c r="F82">
-        <v>-0.2181839278857093</v>
+        <v>0.01474032317068427</v>
       </c>
       <c r="G82">
-        <v>0.01114959092359496</v>
+        <v>0.0707904182326667</v>
       </c>
       <c r="H82">
-        <v>-0.09083123268731785</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>-0.01627721855195621</v>
+      </c>
+      <c r="I82">
+        <v>-0.1330275158681276</v>
+      </c>
+      <c r="J82">
+        <v>-0.1870994380604033</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B83">
-        <v>0.1113440910650451</v>
+        <v>0.08516652658595443</v>
       </c>
       <c r="C83">
-        <v>0.0429396686008446</v>
+        <v>-0.02708902715374755</v>
       </c>
       <c r="D83">
-        <v>-0.03307620168590594</v>
+        <v>-0.001313162300516265</v>
       </c>
       <c r="E83">
-        <v>-0.09021986568818288</v>
+        <v>0.05470236318210885</v>
       </c>
       <c r="F83">
-        <v>0.02038204226499738</v>
+        <v>-0.01740315179959407</v>
       </c>
       <c r="G83">
-        <v>-0.07412939219241961</v>
+        <v>-0.05368045929695715</v>
       </c>
       <c r="H83">
-        <v>0.05769528801775155</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>0.04274518906325961</v>
+      </c>
+      <c r="I83">
+        <v>0.07393007061262948</v>
+      </c>
+      <c r="J83">
+        <v>-0.0801979902619699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>0.04893624691529715</v>
+        <v>0.07102734235177587</v>
       </c>
       <c r="C84">
-        <v>0.03046640955174883</v>
+        <v>-0.02562462853529872</v>
       </c>
       <c r="D84">
-        <v>0.01123762371200863</v>
+        <v>0.005140113905529994</v>
       </c>
       <c r="E84">
-        <v>0.04471013608771904</v>
+        <v>0.02018968322450002</v>
       </c>
       <c r="F84">
-        <v>-0.06706989404627924</v>
+        <v>0.04850066741024078</v>
       </c>
       <c r="G84">
-        <v>0.01362244666054442</v>
+        <v>0.01817818363464095</v>
       </c>
       <c r="H84">
-        <v>-0.0327266491364657</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>0.06679070659375373</v>
+      </c>
+      <c r="I84">
+        <v>0.06517891334281983</v>
+      </c>
+      <c r="J84">
+        <v>0.1349504892882733</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B85">
-        <v>0.1120420072085505</v>
+        <v>0.123080001639677</v>
       </c>
       <c r="C85">
-        <v>0.01817241434083373</v>
+        <v>-0.01229914995295592</v>
       </c>
       <c r="D85">
-        <v>-0.0008112863574065546</v>
+        <v>-0.01310970441780787</v>
       </c>
       <c r="E85">
-        <v>0.07305038337150253</v>
+        <v>-0.002132342321866449</v>
       </c>
       <c r="F85">
-        <v>-0.1207556439686721</v>
+        <v>-0.01388560492365558</v>
       </c>
       <c r="G85">
-        <v>-0.01599543027972166</v>
+        <v>0.02158105233117493</v>
       </c>
       <c r="H85">
-        <v>-0.09918349824516755</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>-0.002053098937225597</v>
+      </c>
+      <c r="I85">
+        <v>-0.05803265926102211</v>
+      </c>
+      <c r="J85">
+        <v>-0.114240978005578</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B86">
-        <v>0.06603278652537657</v>
+        <v>0.1133398268991639</v>
       </c>
       <c r="C86">
-        <v>0.01824089685638327</v>
+        <v>0.07877579968659702</v>
       </c>
       <c r="D86">
-        <v>0.02355274320587476</v>
+        <v>-0.328767751085155</v>
       </c>
       <c r="E86">
-        <v>-0.1145835474692212</v>
+        <v>0.8723885069977864</v>
       </c>
       <c r="F86">
-        <v>-0.03428453860533047</v>
+        <v>-0.1008803019341457</v>
       </c>
       <c r="G86">
-        <v>0.05122607831277158</v>
+        <v>-0.1372310534417127</v>
       </c>
       <c r="H86">
-        <v>-0.220770060945958</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>0.06324800466405671</v>
+      </c>
+      <c r="I86">
+        <v>0.1523188169370126</v>
+      </c>
+      <c r="J86">
+        <v>-0.02749609638604757</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B87">
-        <v>0.1128539456472349</v>
+        <v>0.1203279754896816</v>
       </c>
       <c r="C87">
-        <v>0.04660260824459362</v>
+        <v>-0.08831346082240898</v>
       </c>
       <c r="D87">
-        <v>0.02803326861800946</v>
+        <v>0.06116028226869016</v>
       </c>
       <c r="E87">
-        <v>-0.0293149989672731</v>
+        <v>0.005041224394359051</v>
       </c>
       <c r="F87">
-        <v>0.04283975008936258</v>
+        <v>-0.01696203803814908</v>
       </c>
       <c r="G87">
-        <v>-0.1384827796924618</v>
+        <v>-0.001429216275822662</v>
       </c>
       <c r="H87">
-        <v>-0.01888746940748647</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>0.07004474463993544</v>
+      </c>
+      <c r="I87">
+        <v>0.2132038279074237</v>
+      </c>
+      <c r="J87">
+        <v>0.0928664291279878</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B88">
-        <v>0.07457315762873039</v>
+        <v>0.05637688081306082</v>
       </c>
       <c r="C88">
-        <v>0.03708020466212877</v>
+        <v>-0.02764776907299004</v>
       </c>
       <c r="D88">
-        <v>0.008758622305588376</v>
+        <v>-0.02521266955652441</v>
       </c>
       <c r="E88">
-        <v>-0.02809972187503748</v>
+        <v>-0.03434795760993217</v>
       </c>
       <c r="F88">
-        <v>-0.02275010065197923</v>
+        <v>0.04786830124339327</v>
       </c>
       <c r="G88">
-        <v>-0.0519160680479127</v>
+        <v>0.01966274159672882</v>
       </c>
       <c r="H88">
-        <v>-0.01077741632266724</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>0.006197567555164261</v>
+      </c>
+      <c r="I88">
+        <v>0.02554661173428974</v>
+      </c>
+      <c r="J88">
+        <v>-0.06325162224611786</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B89">
-        <v>0.0913773949065414</v>
+        <v>0.1104244610161387</v>
       </c>
       <c r="C89">
-        <v>-0.3877653539488313</v>
+        <v>0.370894079100874</v>
       </c>
       <c r="D89">
-        <v>0.01144973214565308</v>
+        <v>0.0839967029164347</v>
       </c>
       <c r="E89">
-        <v>-0.05339022691436623</v>
+        <v>-0.01587830150559589</v>
       </c>
       <c r="F89">
-        <v>0.01497867925566613</v>
+        <v>-0.01534156743309466</v>
       </c>
       <c r="G89">
-        <v>-0.002264392297809624</v>
+        <v>0.02887705724769398</v>
       </c>
       <c r="H89">
-        <v>0.01516699362708916</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>0.02879452467015908</v>
+      </c>
+      <c r="I89">
+        <v>0.04430352871098817</v>
+      </c>
+      <c r="J89">
+        <v>0.001774414627176869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B90">
-        <v>0.07059167785322627</v>
+        <v>0.08000432352452178</v>
       </c>
       <c r="C90">
-        <v>-0.300079795130644</v>
+        <v>0.300300449258301</v>
       </c>
       <c r="D90">
-        <v>0.02961197825025824</v>
+        <v>0.06875993089853426</v>
       </c>
       <c r="E90">
-        <v>-0.01759354852607501</v>
+        <v>-0.01747834454606602</v>
       </c>
       <c r="F90">
-        <v>-0.005714132592755187</v>
+        <v>0.05149521906436991</v>
       </c>
       <c r="G90">
-        <v>-0.01663262394758628</v>
+        <v>0.006545638954697166</v>
       </c>
       <c r="H90">
-        <v>0.05015003798952433</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>0.06496538634465332</v>
+      </c>
+      <c r="I90">
+        <v>0.03219755009376675</v>
+      </c>
+      <c r="J90">
+        <v>0.02780680534837839</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B91">
-        <v>0.08347142341414363</v>
+        <v>0.09001420390409857</v>
       </c>
       <c r="C91">
-        <v>0.03091216538849644</v>
+        <v>-0.02043503095099003</v>
       </c>
       <c r="D91">
-        <v>0.006121735061657996</v>
+        <v>-0.02083829145848071</v>
       </c>
       <c r="E91">
-        <v>0.01155983740325192</v>
+        <v>0.009415544647032294</v>
       </c>
       <c r="F91">
-        <v>-0.03907437711618122</v>
+        <v>-0.01483883861860169</v>
       </c>
       <c r="G91">
-        <v>0.04222085982256781</v>
+        <v>0.02411385337421949</v>
       </c>
       <c r="H91">
-        <v>0.009626848792758918</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>-0.002918816372948977</v>
+      </c>
+      <c r="I91">
+        <v>-0.03442088319417484</v>
+      </c>
+      <c r="J91">
+        <v>-0.06973369564463625</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B92">
-        <v>0.06561652360233804</v>
+        <v>0.08970376111639383</v>
       </c>
       <c r="C92">
-        <v>-0.3585721781823331</v>
+        <v>0.3349048959178014</v>
       </c>
       <c r="D92">
-        <v>0.02266360039066386</v>
+        <v>0.09547405633822255</v>
       </c>
       <c r="E92">
-        <v>-0.01951660747444545</v>
+        <v>-0.003564881661371062</v>
       </c>
       <c r="F92">
-        <v>0.06061205907423689</v>
+        <v>0.01441574175508504</v>
       </c>
       <c r="G92">
-        <v>-0.00437591803874865</v>
+        <v>-0.02555783802271978</v>
       </c>
       <c r="H92">
-        <v>0.01979382663819666</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>0.06473036670071525</v>
+      </c>
+      <c r="I92">
+        <v>0.03716188340920504</v>
+      </c>
+      <c r="J92">
+        <v>-0.04887187420842765</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B93">
-        <v>0.08356878642549363</v>
+        <v>0.08120017919076199</v>
       </c>
       <c r="C93">
-        <v>-0.3124920155109748</v>
+        <v>0.3280755204899298</v>
       </c>
       <c r="D93">
-        <v>-0.01548753008252783</v>
+        <v>0.07150436919423221</v>
       </c>
       <c r="E93">
-        <v>-0.004425922271719651</v>
+        <v>-0.003648022039226247</v>
       </c>
       <c r="F93">
-        <v>0.03136765189732243</v>
+        <v>0.06509649182095727</v>
       </c>
       <c r="G93">
-        <v>0.02593085252586065</v>
+        <v>0.01925043583324016</v>
       </c>
       <c r="H93">
-        <v>-0.002615454392545842</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>0.03713404211026853</v>
+      </c>
+      <c r="I93">
+        <v>0.03805957678497868</v>
+      </c>
+      <c r="J93">
+        <v>0.006820598788265186</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B94">
-        <v>0.09911989264674179</v>
+        <v>0.1427292637406372</v>
       </c>
       <c r="C94">
-        <v>0.05031008234242074</v>
+        <v>-0.03666925099013502</v>
       </c>
       <c r="D94">
-        <v>0.01257333172490565</v>
+        <v>-0.0228973967953707</v>
       </c>
       <c r="E94">
-        <v>0.03185551343622295</v>
+        <v>-0.04493910823805022</v>
       </c>
       <c r="F94">
-        <v>-0.07898758367476526</v>
+        <v>-0.0262502412454299</v>
       </c>
       <c r="G94">
-        <v>0.04101171522926317</v>
+        <v>0.005030184833278431</v>
       </c>
       <c r="H94">
-        <v>-0.04135364593662053</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>-0.0009537333140204882</v>
+      </c>
+      <c r="I94">
+        <v>-0.05860394685474844</v>
+      </c>
+      <c r="J94">
+        <v>-0.08487859657390283</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B95">
-        <v>0.1281076534948632</v>
+        <v>0.1277789486594853</v>
       </c>
       <c r="C95">
-        <v>0.0693489332882871</v>
+        <v>-0.05485275694215817</v>
       </c>
       <c r="D95">
-        <v>0.06360617753150077</v>
+        <v>-0.03037932263437317</v>
       </c>
       <c r="E95">
-        <v>-0.06495506058046888</v>
+        <v>-0.03790773389645433</v>
       </c>
       <c r="F95">
-        <v>0.1047873103543261</v>
+        <v>-0.006633363553517345</v>
       </c>
       <c r="G95">
-        <v>-0.1090466761072277</v>
+        <v>-0.001934477631740411</v>
       </c>
       <c r="H95">
-        <v>-0.05686611150929644</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>0.09737729423248252</v>
+      </c>
+      <c r="I95">
+        <v>0.1352872719437817</v>
+      </c>
+      <c r="J95">
+        <v>0.04905267379248989</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.01097019066376125</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.0002771869600738042</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.002533046990781094</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.004256949782308064</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.002927723166693441</v>
       </c>
       <c r="G96">
-        <v>0</v>
+        <v>-0.01146761156220291</v>
       </c>
       <c r="H96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>-0.0009965048562719612</v>
+      </c>
+      <c r="I96">
+        <v>0.02642860590265602</v>
+      </c>
+      <c r="J96">
+        <v>0.008161662476413195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B97">
-        <v>0.1437765496650108</v>
+        <v>0.171236515097161</v>
       </c>
       <c r="C97">
-        <v>-0.04193940199136003</v>
+        <v>0.02387737429133281</v>
       </c>
       <c r="D97">
-        <v>-0.1326678381830237</v>
+        <v>-0.05340770462718591</v>
       </c>
       <c r="E97">
-        <v>0.8813680154396587</v>
+        <v>-0.1009075406142976</v>
       </c>
       <c r="F97">
-        <v>0.1278854349596561</v>
+        <v>0.1182912795738294</v>
       </c>
       <c r="G97">
-        <v>-0.1162158803311343</v>
+        <v>-0.8577296314904952</v>
       </c>
       <c r="H97">
-        <v>0.03883317180441126</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>-0.1895831283053879</v>
+      </c>
+      <c r="I97">
+        <v>-0.2996601616386813</v>
+      </c>
+      <c r="J97">
+        <v>0.1194456099651005</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B98">
-        <v>0.3190976184955552</v>
+        <v>0.2586867112853434</v>
       </c>
       <c r="C98">
-        <v>0.0645166343346376</v>
+        <v>0.01593383384916314</v>
       </c>
       <c r="D98">
-        <v>-0.1716877022839663</v>
+        <v>0.0568713874288251</v>
       </c>
       <c r="E98">
-        <v>-0.1189143411729675</v>
+        <v>0.1135054457393643</v>
       </c>
       <c r="F98">
-        <v>0.03154387798154693</v>
+        <v>-0.1715932543957316</v>
       </c>
       <c r="G98">
-        <v>0.2545626480772628</v>
+        <v>0.1503924696396794</v>
       </c>
       <c r="H98">
-        <v>0.1745678089611008</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>-0.3219885504139277</v>
+      </c>
+      <c r="I98">
+        <v>-0.2203717010018641</v>
+      </c>
+      <c r="J98">
+        <v>-0.2468581399125751</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B99">
-        <v>0.0887211745585863</v>
+        <v>0.06061178660332075</v>
       </c>
       <c r="C99">
-        <v>0.02022807253795566</v>
+        <v>-0.0008792846907823267</v>
       </c>
       <c r="D99">
-        <v>0.01198771201941193</v>
+        <v>-0.01961463419872555</v>
       </c>
       <c r="E99">
-        <v>0.004125847225161559</v>
+        <v>-0.04329715405782829</v>
       </c>
       <c r="F99">
-        <v>-0.01197822902438691</v>
+        <v>-0.006953754212740851</v>
       </c>
       <c r="G99">
-        <v>0.005631784143470472</v>
+        <v>0.003853851310326497</v>
       </c>
       <c r="H99">
-        <v>0.07622448316552305</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>0.02524311973541834</v>
+      </c>
+      <c r="I99">
+        <v>-0.01806101168105158</v>
+      </c>
+      <c r="J99">
+        <v>-0.02395856951199188</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>0.08710164258947679</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.2098879674059832</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.8840245771080036</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.2653416026619794</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.06706761417019799</v>
       </c>
       <c r="G100">
-        <v>0</v>
+        <v>-0.1160808765539744</v>
       </c>
       <c r="H100">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>-0.05961175030031361</v>
+      </c>
+      <c r="I100">
+        <v>0.1193974846580594</v>
+      </c>
+      <c r="J100">
+        <v>-0.01236403313895</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B101">
-        <v>0.05771098833921715</v>
+        <v>0.03568484899289346</v>
       </c>
       <c r="C101">
-        <v>-0.002906302891834851</v>
+        <v>-0.004415141564478046</v>
       </c>
       <c r="D101">
-        <v>0.03956142035131654</v>
+        <v>0.00569763183501273</v>
       </c>
       <c r="E101">
-        <v>-0.02911909357087783</v>
+        <v>-0.008732634437805099</v>
       </c>
       <c r="F101">
-        <v>-0.02228400871123348</v>
+        <v>0.0239358582931622</v>
       </c>
       <c r="G101">
-        <v>-0.04586775594674559</v>
+        <v>0.01524923538971146</v>
       </c>
       <c r="H101">
-        <v>-0.1000393908139859</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>0.06423237436838992</v>
+      </c>
+      <c r="I101">
+        <v>0.02354770030634412</v>
+      </c>
+      <c r="J101">
+        <v>-0.1154971707742077</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3355,10 +3967,16 @@
       <c r="H102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:8">
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3381,10 +3999,16 @@
       <c r="H103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:8">
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3405,6 +4029,12 @@
         <v>0</v>
       </c>
       <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
         <v>0</v>
       </c>
     </row>
